--- a/marketing/강의내용_260202.xlsx
+++ b/marketing/강의내용_260202.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dataclass_weekday/marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A9F4E-3484-2145-BA73-ABBBFD8D86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CD33C4-D3D9-CA4F-BDDC-965ADD0B72FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="3080" windowWidth="34560" windowHeight="19280" activeTab="13" xr2:uid="{5DF4CD5E-CA0C-4245-8A1A-98012FB85C62}"/>
+    <workbookView xWindow="880" yWindow="7380" windowWidth="34560" windowHeight="19280" activeTab="13" xr2:uid="{5DF4CD5E-CA0C-4245-8A1A-98012FB85C62}"/>
   </bookViews>
   <sheets>
     <sheet name="OKR" sheetId="2" r:id="rId1"/>
@@ -1934,7 +1934,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1"/>

--- a/marketing/강의내용_260202.xlsx
+++ b/marketing/강의내용_260202.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dataclass_weekday/marketing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CD33C4-D3D9-CA4F-BDDC-965ADD0B72FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E725B7-0E27-5C40-AAB9-E9CA7EC17E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="7380" windowWidth="34560" windowHeight="19280" activeTab="13" xr2:uid="{5DF4CD5E-CA0C-4245-8A1A-98012FB85C62}"/>
+    <workbookView xWindow="38200" yWindow="9700" windowWidth="34560" windowHeight="19280" activeTab="2" xr2:uid="{5DF4CD5E-CA0C-4245-8A1A-98012FB85C62}"/>
   </bookViews>
   <sheets>
     <sheet name="OKR" sheetId="2" r:id="rId1"/>
@@ -1933,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7039A5-5076-984D-B293-40B70FA7A6F5}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177D851-85C0-9A4A-B217-D8748B5E556D}">
   <dimension ref="B2:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="103" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1"/>
